--- a/biology/Botanique/Parc_régional_de_la_Rivière-Mitis/Parc_régional_de_la_Rivière-Mitis.xlsx
+++ b/biology/Botanique/Parc_régional_de_la_Rivière-Mitis/Parc_régional_de_la_Rivière-Mitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_de_la_Rivi%C3%A8re-Mitis</t>
+          <t>Parc_régional_de_la_Rivière-Mitis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc régional de la Rivière-Mitis est un parc régional du Québec inauguré en 2016 et situé dans la MRC de la Mitis au Bas-Saint-Laurent. Il a une superficie de 342 km2 et est séparé en six secteurs selon les pôles d'activités.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_de_la_Rivi%C3%A8re-Mitis</t>
+          <t>Parc_régional_de_la_Rivière-Mitis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc se situe aux abords de la rivière Mitis et du lac Mitis. Le territoire du parc longe la rivière Mitis de l'embouchure situé à Grand-Métis jusqu'à sa source, le lac Mitis, sur le territoire non-organisé de Lac-à-la-croix. Il englobe également une portion du territoire situé en périphérie du lac qui inclut la seigneurie du lac Métis[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc se situe aux abords de la rivière Mitis et du lac Mitis. Le territoire du parc longe la rivière Mitis de l'embouchure situé à Grand-Métis jusqu'à sa source, le lac Mitis, sur le territoire non-organisé de Lac-à-la-croix. Il englobe également une portion du territoire situé en périphérie du lac qui inclut la seigneurie du lac Métis. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_de_la_Rivi%C3%A8re-Mitis</t>
+          <t>Parc_régional_de_la_Rivière-Mitis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, le Comité de gestion du parc régional de la rivière Mitis est formé dans le but de gérer l'exploitation du parc[2].
-Le parc est ouvert officiellement à l'été 2017[3]. </t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, le Comité de gestion du parc régional de la rivière Mitis est formé dans le but de gérer l'exploitation du parc.
+Le parc est ouvert officiellement à l'été 2017. </t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_de_la_Rivi%C3%A8re-Mitis</t>
+          <t>Parc_régional_de_la_Rivière-Mitis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,41 +586,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Patrimoine naturel</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Faune
-Flore</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Parc_r%C3%A9gional_de_la_Rivi%C3%A8re-Mitis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_r%C3%A9gional_de_la_Rivi%C3%A8re-Mitis</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Activités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
